--- a/Mifos Automation Excels/Client/774-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-Late Repayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/774-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-Late Repayment-Makerepayment1.xlsx
@@ -130,10 +130,9 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -174,19 +173,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -197,11 +187,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,7 +542,7 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="3">
         <v>42050</v>
       </c>
     </row>
@@ -539,10 +553,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -552,105 +566,124 @@
     <col min="5" max="6" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
         <v>10000</v>
       </c>
-      <c r="B2" s="3">
-        <v>833.33</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>9166.67</v>
-      </c>
-      <c r="F2" s="3">
-        <v>833.33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>650</v>
-      </c>
-      <c r="B3" s="3">
-        <v>100</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>550</v>
-      </c>
-      <c r="F3" s="3">
-        <v>91.67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
+      <c r="B2" s="10">
+        <v>739.77</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11">
+        <v>9260.23</v>
+      </c>
+      <c r="F2" s="10">
+        <v>891.13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>668.76</v>
+      </c>
+      <c r="B3" s="10">
+        <v>147.94999999999999</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>520.80999999999995</v>
+      </c>
+      <c r="F3" s="10">
+        <v>42.62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>0</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -659,10 +692,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -670,217 +703,745 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="13">
+        <v>42005</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10">
+        <v>0</v>
+      </c>
+      <c r="L2" s="10">
+        <v>0</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="10"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B3" s="10">
         <v>31</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C3" s="13">
         <v>42036</v>
       </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="D3" s="10"/>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
         <v>785.8</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G3" s="11">
         <v>9214.2000000000007</v>
       </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>785.8</v>
-      </c>
-      <c r="L2" s="3">
-        <v>637.85</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3">
-        <v>637.85</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3">
-        <v>147.94999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="H3" s="10">
+        <v>101.92</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10">
+        <v>887.72</v>
+      </c>
+      <c r="L3" s="10">
+        <v>841.69</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0</v>
+      </c>
+      <c r="N3" s="10">
+        <v>841.69</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="10">
+        <v>46.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B4" s="10">
         <v>14</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C4" s="13">
         <v>42050</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D4" s="13">
         <v>42050</v>
       </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
         <v>9214.2000000000007</v>
       </c>
-      <c r="H3" s="3">
-        <v>147.94999999999999</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
-        <v>147.94999999999999</v>
-      </c>
-      <c r="L3" s="3">
-        <v>147.94999999999999</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="H4" s="10">
+        <v>46.03</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10">
+        <v>46.03</v>
+      </c>
+      <c r="L4" s="10">
+        <v>46.03</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0</v>
+      </c>
+      <c r="N4" s="10">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B5" s="10">
         <v>14</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C5" s="13">
         <v>42064</v>
       </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>844.63</v>
-      </c>
-      <c r="G4" s="5">
-        <v>8369.57</v>
-      </c>
-      <c r="H4" s="3">
-        <v>43.09</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>887.72</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>887.72</v>
-      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>845.1</v>
+      </c>
+      <c r="G5" s="11">
+        <v>8369.1</v>
+      </c>
+      <c r="H5" s="10">
+        <v>42.62</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10">
+        <v>887.72</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0</v>
+      </c>
+      <c r="N5" s="10">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="10">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10">
+        <v>31</v>
+      </c>
+      <c r="C6" s="13">
+        <v>42095</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <v>793.34</v>
+      </c>
+      <c r="G6" s="11">
+        <v>7575.76</v>
+      </c>
+      <c r="H6" s="10">
+        <v>94.38</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
+        <v>887.72</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0</v>
+      </c>
+      <c r="N6" s="10">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="10">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10">
+        <v>30</v>
+      </c>
+      <c r="C7" s="13">
+        <v>42125</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <v>813</v>
+      </c>
+      <c r="G7" s="11">
+        <v>6762.76</v>
+      </c>
+      <c r="H7" s="10">
+        <v>74.72</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
+        <v>887.72</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="10">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10">
+        <v>31</v>
+      </c>
+      <c r="C8" s="13">
+        <v>42156</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>818.8</v>
+      </c>
+      <c r="G8" s="11">
+        <v>5943.96</v>
+      </c>
+      <c r="H8" s="10">
+        <v>68.92</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
+        <v>887.72</v>
+      </c>
+      <c r="L8" s="10">
+        <v>0</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="10">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10">
+        <v>30</v>
+      </c>
+      <c r="C9" s="13">
+        <v>42186</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>829.09</v>
+      </c>
+      <c r="G9" s="11">
+        <v>5114.87</v>
+      </c>
+      <c r="H9" s="10">
+        <v>58.63</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10">
+        <v>887.72</v>
+      </c>
+      <c r="L9" s="10">
+        <v>0</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="10">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10">
+        <v>31</v>
+      </c>
+      <c r="C10" s="13">
+        <v>42217</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
+        <v>835.59</v>
+      </c>
+      <c r="G10" s="11">
+        <v>4279.28</v>
+      </c>
+      <c r="H10" s="10">
+        <v>52.13</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="10">
+        <v>887.72</v>
+      </c>
+      <c r="L10" s="10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="10">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10">
+        <v>31</v>
+      </c>
+      <c r="C11" s="13">
+        <v>42248</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <v>844.11</v>
+      </c>
+      <c r="G11" s="11">
+        <v>3435.17</v>
+      </c>
+      <c r="H11" s="10">
+        <v>43.61</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10">
+        <v>887.72</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0</v>
+      </c>
+      <c r="N11" s="10">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="10">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10">
+        <v>30</v>
+      </c>
+      <c r="C12" s="13">
+        <v>42278</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10">
+        <v>853.84</v>
+      </c>
+      <c r="G12" s="11">
+        <v>2581.33</v>
+      </c>
+      <c r="H12" s="10">
+        <v>33.880000000000003</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10">
+        <v>0</v>
+      </c>
+      <c r="K12" s="10">
+        <v>887.72</v>
+      </c>
+      <c r="L12" s="10">
+        <v>0</v>
+      </c>
+      <c r="M12" s="10">
+        <v>0</v>
+      </c>
+      <c r="N12" s="10">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="10">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10">
+        <v>31</v>
+      </c>
+      <c r="C13" s="13">
+        <v>42309</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
+        <v>861.41</v>
+      </c>
+      <c r="G13" s="11">
+        <v>1719.92</v>
+      </c>
+      <c r="H13" s="10">
+        <v>26.31</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0</v>
+      </c>
+      <c r="K13" s="10">
+        <v>887.72</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0</v>
+      </c>
+      <c r="M13" s="10">
+        <v>0</v>
+      </c>
+      <c r="N13" s="10">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="10">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10">
+        <v>30</v>
+      </c>
+      <c r="C14" s="13">
+        <v>42339</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10">
+        <v>870.76</v>
+      </c>
+      <c r="G14" s="10">
+        <v>849.16</v>
+      </c>
+      <c r="H14" s="10">
+        <v>16.96</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0</v>
+      </c>
+      <c r="K14" s="10">
+        <v>887.72</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0</v>
+      </c>
+      <c r="N14" s="10">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="10">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10">
+        <v>31</v>
+      </c>
+      <c r="C15" s="13">
+        <v>42370</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10">
+        <v>849.16</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
+        <v>8.65</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10">
+        <v>0</v>
+      </c>
+      <c r="K15" s="10">
+        <v>857.81</v>
+      </c>
+      <c r="L15" s="10">
+        <v>0</v>
+      </c>
+      <c r="M15" s="10">
+        <v>0</v>
+      </c>
+      <c r="N15" s="10">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="10">
+        <v>857.81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="P16" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C16:E16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -891,99 +1452,101 @@
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
-        <v>2622</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>21</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="13">
+        <v>42050</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10">
+        <v>887.72</v>
+      </c>
+      <c r="F2" s="10">
+        <v>739.77</v>
+      </c>
+      <c r="G2" s="10">
+        <v>147.94999999999999</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11">
+        <v>9260.23</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>19</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="13">
         <v>42005</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>933.33</v>
-      </c>
-      <c r="F2" s="3">
-        <v>833.33</v>
-      </c>
-      <c r="G2" s="3">
-        <v>100</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
-        <v>9166.67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
-        <v>2621</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="4">
-        <v>41974</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="9">
         <v>10000</v>
       </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
         <v>10000</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Client/774-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-Late Repayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/774-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-Late Repayment-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -118,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -173,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -217,6 +222,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -226,6 +234,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -274,7 +285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,9 +318,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,6 +370,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -692,10 +737,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -703,7 +748,7 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
@@ -743,17 +788,18 @@
       <c r="M1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="13">
@@ -780,12 +826,13 @@
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="10"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O2" s="10"/>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -823,17 +870,18 @@
       <c r="M3" s="10">
         <v>0</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="10"/>
+      <c r="O3" s="10">
         <v>841.69</v>
       </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="10">
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="10">
         <v>46.03</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -873,17 +921,18 @@
       <c r="M4" s="10">
         <v>0</v>
       </c>
-      <c r="N4" s="10">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N4" s="10"/>
+      <c r="O4" s="10">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -921,17 +970,18 @@
       <c r="M5" s="10">
         <v>0</v>
       </c>
-      <c r="N5" s="10">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5" s="10">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N5" s="10"/>
+      <c r="O5" s="10">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -969,17 +1019,18 @@
       <c r="M6" s="10">
         <v>0</v>
       </c>
-      <c r="N6" s="10">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="10">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N6" s="10"/>
+      <c r="O6" s="10">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1017,17 +1068,18 @@
       <c r="M7" s="10">
         <v>0</v>
       </c>
-      <c r="N7" s="10">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="10">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N7" s="10"/>
+      <c r="O7" s="10">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1065,17 +1117,18 @@
       <c r="M8" s="10">
         <v>0</v>
       </c>
-      <c r="N8" s="10">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0</v>
-      </c>
-      <c r="P8" s="10">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N8" s="10"/>
+      <c r="O8" s="10">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -1113,17 +1166,18 @@
       <c r="M9" s="10">
         <v>0</v>
       </c>
-      <c r="N9" s="10">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="10">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N9" s="10"/>
+      <c r="O9" s="10">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -1161,17 +1215,18 @@
       <c r="M10" s="10">
         <v>0</v>
       </c>
-      <c r="N10" s="10">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0</v>
-      </c>
-      <c r="P10" s="10">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N10" s="10"/>
+      <c r="O10" s="10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -1209,17 +1264,18 @@
       <c r="M11" s="10">
         <v>0</v>
       </c>
-      <c r="N11" s="10">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="10">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N11" s="10"/>
+      <c r="O11" s="10">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -1257,17 +1313,18 @@
       <c r="M12" s="10">
         <v>0</v>
       </c>
-      <c r="N12" s="10">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0</v>
-      </c>
-      <c r="P12" s="10">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N12" s="10"/>
+      <c r="O12" s="10">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -1305,17 +1362,18 @@
       <c r="M13" s="10">
         <v>0</v>
       </c>
-      <c r="N13" s="10">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
-        <v>0</v>
-      </c>
-      <c r="P13" s="10">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N13" s="10"/>
+      <c r="O13" s="10">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -1353,17 +1411,18 @@
       <c r="M14" s="10">
         <v>0</v>
       </c>
-      <c r="N14" s="10">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2">
-        <v>0</v>
-      </c>
-      <c r="P14" s="10">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N14" s="10"/>
+      <c r="O14" s="10">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -1401,22 +1460,23 @@
       <c r="M15" s="10">
         <v>0</v>
       </c>
-      <c r="N15" s="10">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15" s="10">
+      <c r="N15" s="10"/>
+      <c r="O15" s="10">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="10">
         <v>857.81</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="15"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -1425,8 +1485,9 @@
       <c r="K16" s="12"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="P16" s="12"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="8"/>
+      <c r="Q16" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1440,7 +1501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/774-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-Late Repayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/774-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-Late Repayment-Makerepayment1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -123,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -285,7 +280,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,26 +313,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -370,23 +348,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -598,10 +559,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -611,7 +572,7 @@
     <col min="5" max="6" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -631,7 +592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>10000</v>
       </c>
@@ -649,7 +610,7 @@
         <v>891.13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>668.76</v>
       </c>
@@ -669,7 +630,7 @@
         <v>42.62</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>0</v>
       </c>
@@ -689,7 +650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>0</v>
       </c>
@@ -708,27 +669,6 @@
       <c r="F5" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -739,7 +679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
